--- a/Code/Results/Cases/Case_4_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.882789302510361</v>
+        <v>0.6793107954798927</v>
       </c>
       <c r="C2">
-        <v>0.4815308298122147</v>
+        <v>0.1525804409479576</v>
       </c>
       <c r="D2">
-        <v>0.3921263265233392</v>
+        <v>0.6034296570682898</v>
       </c>
       <c r="E2">
-        <v>0.1276903130016969</v>
+        <v>0.2321810351232294</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4269518438499489</v>
+        <v>0.5951141136014826</v>
       </c>
       <c r="H2">
-        <v>0.3176944435231519</v>
+        <v>0.7112117221102778</v>
       </c>
       <c r="I2">
-        <v>0.2164452943196125</v>
+        <v>0.5071687533280347</v>
       </c>
       <c r="J2">
-        <v>0.04775626594449633</v>
+        <v>0.1116288951982867</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6443264456459019</v>
+        <v>0.3808890920517243</v>
       </c>
       <c r="N2">
-        <v>0.7148126754392052</v>
+        <v>1.175697335602941</v>
       </c>
       <c r="O2">
-        <v>1.519878827197203</v>
+        <v>2.593322707566358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.638106747271763</v>
+        <v>0.6049434980060937</v>
       </c>
       <c r="C3">
-        <v>0.420072874083246</v>
+        <v>0.1336355259787751</v>
       </c>
       <c r="D3">
-        <v>0.3616033820665336</v>
+        <v>0.5993216955707794</v>
       </c>
       <c r="E3">
-        <v>0.1200728436057084</v>
+        <v>0.231797210348379</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.396220394155435</v>
+        <v>0.5929443060359603</v>
       </c>
       <c r="H3">
-        <v>0.3093252535538227</v>
+        <v>0.7143397936445979</v>
       </c>
       <c r="I3">
-        <v>0.2173835389659224</v>
+        <v>0.5122633347427055</v>
       </c>
       <c r="J3">
-        <v>0.04672019490590174</v>
+        <v>0.1121671938242166</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.562338554993481</v>
+        <v>0.3584315496976913</v>
       </c>
       <c r="N3">
-        <v>0.7318462200973599</v>
+        <v>1.184309024462664</v>
       </c>
       <c r="O3">
-        <v>1.436814128491392</v>
+        <v>2.594969703520292</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.487950683121966</v>
+        <v>0.5592629065957624</v>
       </c>
       <c r="C4">
-        <v>0.382344607033815</v>
+        <v>0.1219732711205381</v>
       </c>
       <c r="D4">
-        <v>0.3433650927562155</v>
+        <v>0.5970895539580283</v>
       </c>
       <c r="E4">
-        <v>0.1155852694799115</v>
+        <v>0.2316719298149721</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3783120947033041</v>
+        <v>0.5920428204128001</v>
       </c>
       <c r="H4">
-        <v>0.3047808366034133</v>
+        <v>0.7166048894320625</v>
       </c>
       <c r="I4">
-        <v>0.2185714724166807</v>
+        <v>0.515704910850733</v>
       </c>
       <c r="J4">
-        <v>0.04616939357286043</v>
+        <v>0.1125481760014146</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5122437241863267</v>
+        <v>0.3447591368851235</v>
       </c>
       <c r="N4">
-        <v>0.7432209811551118</v>
+        <v>1.190042829475999</v>
       </c>
       <c r="O4">
-        <v>1.389082489931525</v>
+        <v>2.597604444320723</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.42676415034208</v>
+        <v>0.5406441892657199</v>
       </c>
       <c r="C5">
-        <v>0.3669671689561369</v>
+        <v>0.1172135310553415</v>
       </c>
       <c r="D5">
-        <v>0.3360518977941354</v>
+        <v>0.5962530106407797</v>
       </c>
       <c r="E5">
-        <v>0.1138016935132669</v>
+        <v>0.2316486600029144</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3712408531989979</v>
+        <v>0.591783657184024</v>
       </c>
       <c r="H5">
-        <v>0.3030715967775706</v>
+        <v>0.7176145839856218</v>
       </c>
       <c r="I5">
-        <v>0.2192024551187153</v>
+        <v>0.5171861381644014</v>
       </c>
       <c r="J5">
-        <v>0.04596543813825349</v>
+        <v>0.1127161214875159</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4918830066545254</v>
+        <v>0.3392171827342523</v>
       </c>
       <c r="N5">
-        <v>0.7480800333878435</v>
+        <v>1.192491716983213</v>
       </c>
       <c r="O5">
-        <v>1.370407583064861</v>
+        <v>2.599086161636507</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.416603899157082</v>
+        <v>0.5375523895051799</v>
       </c>
       <c r="C6">
-        <v>0.3644134535005321</v>
+        <v>0.1164227482393301</v>
       </c>
       <c r="D6">
-        <v>0.334844528405597</v>
+        <v>0.5961185198638788</v>
       </c>
       <c r="E6">
-        <v>0.113508187368474</v>
+        <v>0.2316464748248883</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3700799335115335</v>
+        <v>0.5917471546556072</v>
       </c>
       <c r="H6">
-        <v>0.302796201960092</v>
+        <v>0.7177874774779553</v>
       </c>
       <c r="I6">
-        <v>0.2193159035490737</v>
+        <v>0.5174368494996102</v>
       </c>
       <c r="J6">
-        <v>0.04593278246106181</v>
+        <v>0.1127447753551571</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4885051056256628</v>
+        <v>0.3382987472696115</v>
       </c>
       <c r="N6">
-        <v>0.7489002019644602</v>
+        <v>1.192905139962342</v>
       </c>
       <c r="O6">
-        <v>1.367352195146537</v>
+        <v>2.599356838466065</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.487125508359554</v>
+        <v>0.559011820645253</v>
       </c>
       <c r="C7">
-        <v>0.3821372390692375</v>
+        <v>0.1219091087095308</v>
       </c>
       <c r="D7">
-        <v>0.3432659919217684</v>
+        <v>0.5970779760294107</v>
       </c>
       <c r="E7">
-        <v>0.1155610359993098</v>
+        <v>0.2316715034647423</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3782158316554387</v>
+        <v>0.5920388873180258</v>
       </c>
       <c r="H7">
-        <v>0.3047572163616792</v>
+        <v>0.7166181556385567</v>
       </c>
       <c r="I7">
-        <v>0.2185793962863904</v>
+        <v>0.5157245684099863</v>
       </c>
       <c r="J7">
-        <v>0.04616656118853157</v>
+        <v>0.1125503895791873</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5119689274301464</v>
+        <v>0.3446842755858484</v>
       </c>
       <c r="N7">
-        <v>0.7432856145887712</v>
+        <v>1.190075401112303</v>
       </c>
       <c r="O7">
-        <v>1.388827550602088</v>
+        <v>2.597622775410144</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.798395622264877</v>
+        <v>0.6536735522201695</v>
       </c>
       <c r="C8">
-        <v>0.4603357207464853</v>
+        <v>0.1460546154737301</v>
       </c>
       <c r="D8">
-        <v>0.3814930514273129</v>
+        <v>0.6019530709093885</v>
       </c>
       <c r="E8">
-        <v>0.1250229005167043</v>
+        <v>0.2320257951262441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4161468726553323</v>
+        <v>0.5942764769063729</v>
       </c>
       <c r="H8">
-        <v>0.3146812033507587</v>
+        <v>0.7122188115469044</v>
       </c>
       <c r="I8">
-        <v>0.2166375204068522</v>
+        <v>0.5088602592465783</v>
       </c>
       <c r="J8">
-        <v>0.04738072023373974</v>
+        <v>0.1118040279527293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6160006348464364</v>
+        <v>0.3731217273392815</v>
       </c>
       <c r="N8">
-        <v>0.7204916214337729</v>
+        <v>1.178574107335066</v>
       </c>
       <c r="O8">
-        <v>1.490530777379405</v>
+        <v>2.59355351238267</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.410271636349194</v>
+        <v>0.8391116298465136</v>
       </c>
       <c r="C9">
-        <v>0.6139726089171802</v>
+        <v>0.1931563308506838</v>
       </c>
       <c r="D9">
-        <v>0.4608032132652511</v>
+        <v>0.6138118583105268</v>
       </c>
       <c r="E9">
-        <v>0.1452030492032463</v>
+        <v>0.2335956804489143</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4988759415274728</v>
+        <v>0.6020893015473945</v>
       </c>
       <c r="H9">
-        <v>0.3391823450783988</v>
+        <v>0.7063236476781043</v>
       </c>
       <c r="I9">
-        <v>0.2180146502822495</v>
+        <v>0.497889978012239</v>
       </c>
       <c r="J9">
-        <v>0.05048485708565309</v>
+        <v>0.110740783678235</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8223784710268021</v>
+        <v>0.4298006679067825</v>
       </c>
       <c r="N9">
-        <v>0.6833758783892705</v>
+        <v>1.159555546921602</v>
       </c>
       <c r="O9">
-        <v>1.718130728016376</v>
+        <v>2.59846780313984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.862011416082794</v>
+        <v>0.9751887899288931</v>
       </c>
       <c r="C10">
-        <v>0.7273852998910399</v>
+        <v>0.2276015631105963</v>
       </c>
       <c r="D10">
-        <v>0.5222530412493143</v>
+        <v>0.6239228467017597</v>
       </c>
       <c r="E10">
-        <v>0.1612002607300127</v>
+        <v>0.2352820036168524</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5658129233010101</v>
+        <v>0.6099284898182447</v>
       </c>
       <c r="H10">
-        <v>0.3607362800751588</v>
+        <v>0.7036571480849148</v>
       </c>
       <c r="I10">
-        <v>0.2226725336455821</v>
+        <v>0.4913530884205422</v>
       </c>
       <c r="J10">
-        <v>0.05327431476180067</v>
+        <v>0.1102037217639591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9760863281427348</v>
+        <v>0.4719876161412202</v>
       </c>
       <c r="N10">
-        <v>0.661191557877892</v>
+        <v>1.147731636825547</v>
       </c>
       <c r="O10">
-        <v>1.905785895534535</v>
+        <v>2.609961466455957</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.06830935468605</v>
+        <v>1.037049143999241</v>
       </c>
       <c r="C11">
-        <v>0.7791833878472687</v>
+        <v>0.2432349520425419</v>
       </c>
       <c r="D11">
-        <v>0.5510252010176657</v>
+        <v>0.6288257039706195</v>
       </c>
       <c r="E11">
-        <v>0.1687749003485415</v>
+        <v>0.2361647880559126</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5978550756031353</v>
+        <v>0.6139530441682552</v>
       </c>
       <c r="H11">
-        <v>0.3714275973536587</v>
+        <v>0.7028054498587437</v>
       </c>
       <c r="I11">
-        <v>0.2256981445697335</v>
+        <v>0.4887109996767762</v>
       </c>
       <c r="J11">
-        <v>0.05467000286186519</v>
+        <v>0.1100124176124524</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.046617146416303</v>
+        <v>0.4912956523620053</v>
       </c>
       <c r="N11">
-        <v>0.6523129888627466</v>
+        <v>1.142818047589046</v>
       </c>
       <c r="O11">
-        <v>1.99637128742495</v>
+        <v>2.616907162957972</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.146571303917824</v>
+        <v>1.06046697816555</v>
       </c>
       <c r="C12">
-        <v>0.798835322933968</v>
+        <v>0.2491495166373738</v>
       </c>
       <c r="D12">
-        <v>0.5620493646170814</v>
+        <v>0.6307258243776914</v>
       </c>
       <c r="E12">
-        <v>0.1716898059429539</v>
+        <v>0.2365156921231275</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6102402691453648</v>
+        <v>0.6155431321762705</v>
       </c>
       <c r="H12">
-        <v>0.3756138178170261</v>
+        <v>0.7025348710240422</v>
       </c>
       <c r="I12">
-        <v>0.226984542111154</v>
+        <v>0.4877582735611057</v>
       </c>
       <c r="J12">
-        <v>0.05521819226329683</v>
+        <v>0.109947598390697</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.073426297785119</v>
+        <v>0.4986236379316722</v>
       </c>
       <c r="N12">
-        <v>0.6491352230296599</v>
+        <v>1.141024201342461</v>
       </c>
       <c r="O12">
-        <v>2.031493879314041</v>
+        <v>2.619784567834898</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.129709460137235</v>
+        <v>1.055423876063571</v>
       </c>
       <c r="C13">
-        <v>0.7946011499756764</v>
+        <v>0.247875956879426</v>
       </c>
       <c r="D13">
-        <v>0.5596692013828033</v>
+        <v>0.6303146657453453</v>
       </c>
       <c r="E13">
-        <v>0.1710598952019637</v>
+        <v>0.236439380116984</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6075613326663785</v>
+        <v>0.6151977371301598</v>
       </c>
       <c r="H13">
-        <v>0.3747059480176773</v>
+        <v>0.7025908351658217</v>
       </c>
       <c r="I13">
-        <v>0.2267010660344724</v>
+        <v>0.4879613338281032</v>
       </c>
       <c r="J13">
-        <v>0.05509923077318746</v>
+        <v>0.1099612192953678</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.067647769612158</v>
+        <v>0.4970446993473345</v>
       </c>
       <c r="N13">
-        <v>0.6498112477696054</v>
+        <v>1.141407567264082</v>
       </c>
       <c r="O13">
-        <v>2.023891981223073</v>
+        <v>2.619153867371665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.0747450194267</v>
+        <v>1.038975897980436</v>
       </c>
       <c r="C14">
-        <v>0.7807993752121263</v>
+        <v>0.2437216579576216</v>
       </c>
       <c r="D14">
-        <v>0.5519295184304553</v>
+        <v>0.62898115650367</v>
       </c>
       <c r="E14">
-        <v>0.1690137557324434</v>
+        <v>0.2361933243154297</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5988688369195359</v>
+        <v>0.6140825365395131</v>
       </c>
       <c r="H14">
-        <v>0.3717691804715741</v>
+        <v>0.7027821482873833</v>
       </c>
       <c r="I14">
-        <v>0.2258010967458617</v>
+        <v>0.4886316602865932</v>
       </c>
       <c r="J14">
-        <v>0.05471469980905752</v>
+        <v>0.1100069321034702</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.048820654901398</v>
+        <v>0.4918982025586089</v>
       </c>
       <c r="N14">
-        <v>0.6520477983302015</v>
+        <v>1.142669127908263</v>
       </c>
       <c r="O14">
-        <v>1.999243998558683</v>
+        <v>2.617138932452775</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.041096947895937</v>
+        <v>1.028900041406246</v>
       </c>
       <c r="C15">
-        <v>0.7723504572494733</v>
+        <v>0.2411763100406858</v>
       </c>
       <c r="D15">
-        <v>0.5472058518190579</v>
+        <v>0.6281700074669345</v>
       </c>
       <c r="E15">
-        <v>0.1677666158552249</v>
+        <v>0.2360447709073732</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5935778858220004</v>
+        <v>0.6134080535199473</v>
       </c>
       <c r="H15">
-        <v>0.3699885669172431</v>
+        <v>0.7029060968947789</v>
       </c>
       <c r="I15">
-        <v>0.2252684753440306</v>
+        <v>0.4890484792143432</v>
       </c>
       <c r="J15">
-        <v>0.054481770145685</v>
+        <v>0.1100359253554792</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.037302021121874</v>
+        <v>0.4887479561228858</v>
       </c>
       <c r="N15">
-        <v>0.6534420637637837</v>
+        <v>1.143450570684792</v>
       </c>
       <c r="O15">
-        <v>1.984255307830864</v>
+        <v>2.615936930689486</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.848547658609846</v>
+        <v>0.971145115337265</v>
       </c>
       <c r="C16">
-        <v>0.7240049459121281</v>
+        <v>0.2265791363261087</v>
       </c>
       <c r="D16">
-        <v>0.5203901105196849</v>
+        <v>0.6236085282675958</v>
       </c>
       <c r="E16">
-        <v>0.1607115426287251</v>
+        <v>0.2352266373871501</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5637528253535322</v>
+        <v>0.6096747140802847</v>
       </c>
       <c r="H16">
-        <v>0.3600562677708155</v>
+        <v>0.7037200777166674</v>
       </c>
       <c r="I16">
-        <v>0.222493911203177</v>
+        <v>0.4915324354363548</v>
       </c>
       <c r="J16">
-        <v>0.05318577506792721</v>
+        <v>0.110217290682602</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9714903187597912</v>
+        <v>0.4707281128591205</v>
       </c>
       <c r="N16">
-        <v>0.6617970371789568</v>
+        <v>1.148062105954459</v>
       </c>
       <c r="O16">
-        <v>1.899976775307465</v>
+        <v>2.609542127842246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.73064779422026</v>
+        <v>0.9357026824425247</v>
       </c>
       <c r="C17">
-        <v>0.6944044572750556</v>
+        <v>0.2176148328560146</v>
       </c>
       <c r="D17">
-        <v>0.5041567657598875</v>
+        <v>0.6208878230094115</v>
       </c>
       <c r="E17">
-        <v>0.156462271242237</v>
+        <v>0.2347543499135227</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5458794764385857</v>
+        <v>0.6075019626651539</v>
       </c>
       <c r="H17">
-        <v>0.3541971633325431</v>
+        <v>0.7043119572695389</v>
       </c>
       <c r="I17">
-        <v>0.2210311347365348</v>
+        <v>0.4931412544409923</v>
       </c>
       <c r="J17">
-        <v>0.05242418453501685</v>
+        <v>0.1103421297677087</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9312818487465435</v>
+        <v>0.4597032208203373</v>
       </c>
       <c r="N17">
-        <v>0.6672401098972358</v>
+        <v>1.151010224800473</v>
       </c>
       <c r="O17">
-        <v>1.849659349355335</v>
+        <v>2.606059141471633</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.662908434307099</v>
+        <v>0.9153132743749666</v>
       </c>
       <c r="C18">
-        <v>0.6773979524706419</v>
+        <v>0.2124554392576101</v>
       </c>
       <c r="D18">
-        <v>0.4948960903494424</v>
+        <v>0.6193515011343891</v>
       </c>
       <c r="E18">
-        <v>0.1540459561077938</v>
+        <v>0.234493591031832</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5357476198164193</v>
+        <v>0.606295397856627</v>
       </c>
       <c r="H18">
-        <v>0.3509099342945348</v>
+        <v>0.704686399399705</v>
       </c>
       <c r="I18">
-        <v>0.2202744734162536</v>
+        <v>0.4940978083027048</v>
       </c>
       <c r="J18">
-        <v>0.05199797559217956</v>
+        <v>0.1104189232081367</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9082114133003856</v>
+        <v>0.4533730275431722</v>
       </c>
       <c r="N18">
-        <v>0.670484381878083</v>
+        <v>1.152749692219068</v>
       </c>
       <c r="O18">
-        <v>1.821205013121187</v>
+        <v>2.604217430717227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.639984905989081</v>
+        <v>0.9084091489100956</v>
       </c>
       <c r="C19">
-        <v>0.6716428724846537</v>
+        <v>0.2107079885844882</v>
       </c>
       <c r="D19">
-        <v>0.4917733665160142</v>
+        <v>0.6188362365407158</v>
       </c>
       <c r="E19">
-        <v>0.1532324890099765</v>
+        <v>0.2344071732573028</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5323419766976087</v>
+        <v>0.6058942812559707</v>
       </c>
       <c r="H19">
-        <v>0.3498108523071295</v>
+        <v>0.7048190205405547</v>
       </c>
       <c r="I19">
-        <v>0.2200325243535914</v>
+        <v>0.4944270373636073</v>
       </c>
       <c r="J19">
-        <v>0.05185565932191238</v>
+        <v>0.1104457810342332</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9004094638153717</v>
+        <v>0.4512316390946225</v>
       </c>
       <c r="N19">
-        <v>0.671602049662944</v>
+        <v>1.153346168647076</v>
       </c>
       <c r="O19">
-        <v>1.811652462035653</v>
+        <v>2.6036216069663</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.743190641522631</v>
+        <v>0.939475998826822</v>
       </c>
       <c r="C20">
-        <v>0.6975534701049071</v>
+        <v>0.218569448497334</v>
       </c>
       <c r="D20">
-        <v>0.5058768568022458</v>
+        <v>0.6211744920464639</v>
       </c>
       <c r="E20">
-        <v>0.1569117145049361</v>
+        <v>0.2348034989604564</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5477666055039947</v>
+        <v>0.6077287893984504</v>
       </c>
       <c r="H20">
-        <v>0.3548122367542703</v>
+        <v>0.7042454310160764</v>
       </c>
       <c r="I20">
-        <v>0.2211780125499807</v>
+        <v>0.4929667627505552</v>
       </c>
       <c r="J20">
-        <v>0.05250402183376224</v>
+        <v>0.1103283240529471</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9355561781851662</v>
+        <v>0.4608757002071968</v>
       </c>
       <c r="N20">
-        <v>0.6666488627943892</v>
+        <v>1.15069186117902</v>
       </c>
       <c r="O20">
-        <v>1.85496484538902</v>
+        <v>2.606413183062699</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.090885349132805</v>
+        <v>1.043807277581209</v>
       </c>
       <c r="C21">
-        <v>0.7848522206685402</v>
+        <v>0.244942026800004</v>
       </c>
       <c r="D21">
-        <v>0.554199263725593</v>
+        <v>0.6293716603287862</v>
       </c>
       <c r="E21">
-        <v>0.1696134615254046</v>
+        <v>0.2362651461635004</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6014150193598624</v>
+        <v>0.6144083035000421</v>
       </c>
       <c r="H21">
-        <v>0.3726279595598214</v>
+        <v>0.7027245454425355</v>
       </c>
       <c r="I21">
-        <v>0.2260615365138747</v>
+        <v>0.4884334717822618</v>
       </c>
       <c r="J21">
-        <v>0.05482709992011081</v>
+        <v>0.1099932982353593</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.054347792838726</v>
+        <v>0.4934094098872208</v>
       </c>
       <c r="N21">
-        <v>0.651385783672076</v>
+        <v>1.142296763913365</v>
       </c>
       <c r="O21">
-        <v>2.006460881121683</v>
+        <v>2.61772405586504</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.318961938280154</v>
+        <v>1.111950406928543</v>
       </c>
       <c r="C22">
-        <v>0.8421273252175467</v>
+        <v>0.2621460665789925</v>
       </c>
       <c r="D22">
-        <v>0.5865370599554751</v>
+        <v>0.6349825735778438</v>
       </c>
       <c r="E22">
-        <v>0.1781880949517713</v>
+        <v>0.2373172396510057</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6379551080167545</v>
+        <v>0.6191589657653509</v>
       </c>
       <c r="H22">
-        <v>0.3850791703107177</v>
+        <v>0.702033302916476</v>
       </c>
       <c r="I22">
-        <v>0.2300783907980062</v>
+        <v>0.4857492207092662</v>
       </c>
       <c r="J22">
-        <v>0.05646078074505922</v>
+        <v>0.1098187756499662</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.132578574475552</v>
+        <v>0.5147677887678128</v>
       </c>
       <c r="N22">
-        <v>0.6424901217467962</v>
+        <v>1.137199552047072</v>
       </c>
       <c r="O22">
-        <v>2.110286903662768</v>
+        <v>2.626557489149491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.197147190389501</v>
+        <v>1.075585543782438</v>
       </c>
       <c r="C23">
-        <v>0.8115357218256349</v>
+        <v>0.2529669689736238</v>
       </c>
       <c r="D23">
-        <v>0.5692046899345087</v>
+        <v>0.6319647538213076</v>
       </c>
       <c r="E23">
-        <v>0.1735853218103216</v>
+        <v>0.2367468649275821</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6183098739581823</v>
+        <v>0.6165881517429739</v>
       </c>
       <c r="H23">
-        <v>0.3783562643014449</v>
+        <v>0.7023745357102342</v>
       </c>
       <c r="I23">
-        <v>0.2278554313525234</v>
+        <v>0.487156340244816</v>
       </c>
       <c r="J23">
-        <v>0.05557778849872719</v>
+        <v>0.1099078553754005</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.090766395089986</v>
+        <v>0.5033597840945703</v>
       </c>
       <c r="N23">
-        <v>0.6471356707562776</v>
+        <v>1.139884414542784</v>
       </c>
       <c r="O23">
-        <v>2.054408274776421</v>
+        <v>2.621710960265801</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.737519888787119</v>
+        <v>0.9377701231348965</v>
       </c>
       <c r="C24">
-        <v>0.6961297670447379</v>
+        <v>0.2181378844868789</v>
       </c>
       <c r="D24">
-        <v>0.5050989799251511</v>
+        <v>0.6210448022248443</v>
       </c>
       <c r="E24">
-        <v>0.156708438487474</v>
+        <v>0.2347812451418001</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5469129883304618</v>
+        <v>0.6076261084126457</v>
       </c>
       <c r="H24">
-        <v>0.3545339097528455</v>
+        <v>0.704275401118295</v>
       </c>
       <c r="I24">
-        <v>0.2211113472578532</v>
+        <v>0.4930455519484127</v>
       </c>
       <c r="J24">
-        <v>0.05246789124430862</v>
+        <v>0.1103345499745849</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9336236117076808</v>
+        <v>0.4603455968188399</v>
       </c>
       <c r="N24">
-        <v>0.6669158082230808</v>
+        <v>1.150835654580533</v>
       </c>
       <c r="O24">
-        <v>1.852564759957374</v>
+        <v>2.606252620293475</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.24445685638193</v>
+        <v>0.7889712117043359</v>
       </c>
       <c r="C25">
-        <v>0.5723433069553039</v>
+        <v>0.180441553139616</v>
       </c>
       <c r="D25">
-        <v>0.438829602645626</v>
+        <v>0.6103579597892264</v>
       </c>
       <c r="E25">
-        <v>0.1395518875295103</v>
+        <v>0.233077356090579</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4754958854900622</v>
+        <v>0.5996079050923555</v>
       </c>
       <c r="H25">
-        <v>0.3319668344816051</v>
+        <v>0.7076260553265854</v>
       </c>
       <c r="I25">
-        <v>0.2170387185872897</v>
+        <v>0.5005906137641141</v>
       </c>
       <c r="J25">
-        <v>0.04956093356340929</v>
+        <v>0.1109855545498029</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7662308393248907</v>
+        <v>0.4143709680216787</v>
       </c>
       <c r="N25">
-        <v>0.6925589679974351</v>
+        <v>1.164322743471445</v>
       </c>
       <c r="O25">
-        <v>1.65321921012341</v>
+        <v>2.595755619893168</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_187/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_187/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6793107954798927</v>
+        <v>1.882789302510275</v>
       </c>
       <c r="C2">
-        <v>0.1525804409479576</v>
+        <v>0.4815308298121579</v>
       </c>
       <c r="D2">
-        <v>0.6034296570682898</v>
+        <v>0.3921263265233819</v>
       </c>
       <c r="E2">
-        <v>0.2321810351232294</v>
+        <v>0.1276903130017182</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5951141136014826</v>
+        <v>0.4269518438499631</v>
       </c>
       <c r="H2">
-        <v>0.7112117221102778</v>
+        <v>0.3176944435231519</v>
       </c>
       <c r="I2">
-        <v>0.5071687533280347</v>
+        <v>0.216445294319616</v>
       </c>
       <c r="J2">
-        <v>0.1116288951982867</v>
+        <v>0.04775626594448568</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3808890920517243</v>
+        <v>0.6443264456459232</v>
       </c>
       <c r="N2">
-        <v>1.175697335602941</v>
+        <v>0.7148126754392052</v>
       </c>
       <c r="O2">
-        <v>2.593322707566358</v>
+        <v>1.519878827197203</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6049434980060937</v>
+        <v>1.638106747271678</v>
       </c>
       <c r="C3">
-        <v>0.1336355259787751</v>
+        <v>0.4200728740833313</v>
       </c>
       <c r="D3">
-        <v>0.5993216955707794</v>
+        <v>0.3616033820666473</v>
       </c>
       <c r="E3">
-        <v>0.231797210348379</v>
+        <v>0.1200728436057048</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5929443060359603</v>
+        <v>0.3962203941554492</v>
       </c>
       <c r="H3">
-        <v>0.7143397936445979</v>
+        <v>0.3093252535538227</v>
       </c>
       <c r="I3">
-        <v>0.5122633347427055</v>
+        <v>0.217383538965926</v>
       </c>
       <c r="J3">
-        <v>0.1121671938242166</v>
+        <v>0.0467201949060474</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3584315496976913</v>
+        <v>0.5623385549934881</v>
       </c>
       <c r="N3">
-        <v>1.184309024462664</v>
+        <v>0.7318462200974167</v>
       </c>
       <c r="O3">
-        <v>2.594969703520292</v>
+        <v>1.436814128491477</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5592629065957624</v>
+        <v>1.487950683122193</v>
       </c>
       <c r="C4">
-        <v>0.1219732711205381</v>
+        <v>0.3823446070341276</v>
       </c>
       <c r="D4">
-        <v>0.5970895539580283</v>
+        <v>0.3433650927563434</v>
       </c>
       <c r="E4">
-        <v>0.2316719298149721</v>
+        <v>0.115585269479876</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5920428204128001</v>
+        <v>0.378312094703233</v>
       </c>
       <c r="H4">
-        <v>0.7166048894320625</v>
+        <v>0.3047808366034133</v>
       </c>
       <c r="I4">
-        <v>0.515704910850733</v>
+        <v>0.2185714724166878</v>
       </c>
       <c r="J4">
-        <v>0.1125481760014146</v>
+        <v>0.04616939357286043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3447591368851235</v>
+        <v>0.5122437241862983</v>
       </c>
       <c r="N4">
-        <v>1.190042829475999</v>
+        <v>0.7432209811550479</v>
       </c>
       <c r="O4">
-        <v>2.597604444320723</v>
+        <v>1.389082489931525</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5406441892657199</v>
+        <v>1.426764150341882</v>
       </c>
       <c r="C5">
-        <v>0.1172135310553415</v>
+        <v>0.3669671689557674</v>
       </c>
       <c r="D5">
-        <v>0.5962530106407797</v>
+        <v>0.3360518977940927</v>
       </c>
       <c r="E5">
-        <v>0.2316486600029144</v>
+        <v>0.1138016935132349</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.591783657184024</v>
+        <v>0.3712408531990548</v>
       </c>
       <c r="H5">
-        <v>0.7176145839856218</v>
+        <v>0.3030715967775706</v>
       </c>
       <c r="I5">
-        <v>0.5171861381644014</v>
+        <v>0.219202455118694</v>
       </c>
       <c r="J5">
-        <v>0.1127161214875159</v>
+        <v>0.04596543813824638</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3392171827342523</v>
+        <v>0.4918830066545254</v>
       </c>
       <c r="N5">
-        <v>1.192491716983213</v>
+        <v>0.7480800333878292</v>
       </c>
       <c r="O5">
-        <v>2.599086161636507</v>
+        <v>1.370407583064917</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5375523895051799</v>
+        <v>1.416603899157082</v>
       </c>
       <c r="C6">
-        <v>0.1164227482393301</v>
+        <v>0.3644134535007311</v>
       </c>
       <c r="D6">
-        <v>0.5961185198638788</v>
+        <v>0.3348445284054407</v>
       </c>
       <c r="E6">
-        <v>0.2316464748248883</v>
+        <v>0.1135081873684918</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5917471546556072</v>
+        <v>0.3700799335114766</v>
       </c>
       <c r="H6">
-        <v>0.7177874774779553</v>
+        <v>0.302796201960092</v>
       </c>
       <c r="I6">
-        <v>0.5174368494996102</v>
+        <v>0.2193159035490773</v>
       </c>
       <c r="J6">
-        <v>0.1127447753551571</v>
+        <v>0.04593278246103694</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3382987472696115</v>
+        <v>0.4885051056256486</v>
       </c>
       <c r="N6">
-        <v>1.192905139962342</v>
+        <v>0.7489002019644104</v>
       </c>
       <c r="O6">
-        <v>2.599356838466065</v>
+        <v>1.367352195146594</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.559011820645253</v>
+        <v>1.487125508359668</v>
       </c>
       <c r="C7">
-        <v>0.1219091087095308</v>
+        <v>0.3821372390694648</v>
       </c>
       <c r="D7">
-        <v>0.5970779760294107</v>
+        <v>0.3432659919217684</v>
       </c>
       <c r="E7">
-        <v>0.2316715034647423</v>
+        <v>0.1155610359992885</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5920388873180258</v>
+        <v>0.3782158316554245</v>
       </c>
       <c r="H7">
-        <v>0.7166181556385567</v>
+        <v>0.3047572163617929</v>
       </c>
       <c r="I7">
-        <v>0.5157245684099863</v>
+        <v>0.2185793962863833</v>
       </c>
       <c r="J7">
-        <v>0.1125503895791873</v>
+        <v>0.04616656118858842</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3446842755858484</v>
+        <v>0.5119689274301535</v>
       </c>
       <c r="N7">
-        <v>1.190075401112303</v>
+        <v>0.743285614588828</v>
       </c>
       <c r="O7">
-        <v>2.597622775410144</v>
+        <v>1.388827550602059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6536735522201695</v>
+        <v>1.798395622265048</v>
       </c>
       <c r="C8">
-        <v>0.1460546154737301</v>
+        <v>0.4603357207465137</v>
       </c>
       <c r="D8">
-        <v>0.6019530709093885</v>
+        <v>0.3814930514273271</v>
       </c>
       <c r="E8">
-        <v>0.2320257951262441</v>
+        <v>0.1250229005167185</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5942764769063729</v>
+        <v>0.4161468726553039</v>
       </c>
       <c r="H8">
-        <v>0.7122188115469044</v>
+        <v>0.3146812033508581</v>
       </c>
       <c r="I8">
-        <v>0.5088602592465783</v>
+        <v>0.2166375204068522</v>
       </c>
       <c r="J8">
-        <v>0.1118040279527293</v>
+        <v>0.04738072023371132</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3731217273392815</v>
+        <v>0.6160006348464364</v>
       </c>
       <c r="N8">
-        <v>1.178574107335066</v>
+        <v>0.7204916214338368</v>
       </c>
       <c r="O8">
-        <v>2.59355351238267</v>
+        <v>1.490530777379462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8391116298465136</v>
+        <v>2.410271636349307</v>
       </c>
       <c r="C9">
-        <v>0.1931563308506838</v>
+        <v>0.6139726089174076</v>
       </c>
       <c r="D9">
-        <v>0.6138118583105268</v>
+        <v>0.4608032132653932</v>
       </c>
       <c r="E9">
-        <v>0.2335956804489143</v>
+        <v>0.1452030492032463</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6020893015473945</v>
+        <v>0.4988759415275013</v>
       </c>
       <c r="H9">
-        <v>0.7063236476781043</v>
+        <v>0.3391823450785125</v>
       </c>
       <c r="I9">
-        <v>0.497889978012239</v>
+        <v>0.2180146502822495</v>
       </c>
       <c r="J9">
-        <v>0.110740783678235</v>
+        <v>0.05048485708559269</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4298006679067825</v>
+        <v>0.8223784710268021</v>
       </c>
       <c r="N9">
-        <v>1.159555546921602</v>
+        <v>0.6833758783892634</v>
       </c>
       <c r="O9">
-        <v>2.59846780313984</v>
+        <v>1.718130728016433</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9751887899288931</v>
+        <v>2.862011416082794</v>
       </c>
       <c r="C10">
-        <v>0.2276015631105963</v>
+        <v>0.7273852998912673</v>
       </c>
       <c r="D10">
-        <v>0.6239228467017597</v>
+        <v>0.522253041249428</v>
       </c>
       <c r="E10">
-        <v>0.2352820036168524</v>
+        <v>0.1612002607300127</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6099284898182447</v>
+        <v>0.5658129233010385</v>
       </c>
       <c r="H10">
-        <v>0.7036571480849148</v>
+        <v>0.3607362800751588</v>
       </c>
       <c r="I10">
-        <v>0.4913530884205422</v>
+        <v>0.2226725336455821</v>
       </c>
       <c r="J10">
-        <v>0.1102037217639591</v>
+        <v>0.05327431476181843</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4719876161412202</v>
+        <v>0.9760863281427348</v>
       </c>
       <c r="N10">
-        <v>1.147731636825547</v>
+        <v>0.6611915578778778</v>
       </c>
       <c r="O10">
-        <v>2.609961466455957</v>
+        <v>1.905785895534535</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.037049143999241</v>
+        <v>3.068309354686107</v>
       </c>
       <c r="C11">
-        <v>0.2432349520425419</v>
+        <v>0.7791833878473824</v>
       </c>
       <c r="D11">
-        <v>0.6288257039706195</v>
+        <v>0.5510252010176941</v>
       </c>
       <c r="E11">
-        <v>0.2361647880559126</v>
+        <v>0.1687749003485308</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6139530441682552</v>
+        <v>0.5978550756031638</v>
       </c>
       <c r="H11">
-        <v>0.7028054498587437</v>
+        <v>0.3714275973536587</v>
       </c>
       <c r="I11">
-        <v>0.4887109996767762</v>
+        <v>0.2256981445697477</v>
       </c>
       <c r="J11">
-        <v>0.1100124176124524</v>
+        <v>0.05467000286189361</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4912956523620053</v>
+        <v>1.046617146416324</v>
       </c>
       <c r="N11">
-        <v>1.142818047589046</v>
+        <v>0.6523129888627324</v>
       </c>
       <c r="O11">
-        <v>2.616907162957972</v>
+        <v>1.99637128742495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.06046697816555</v>
+        <v>3.146571303917995</v>
       </c>
       <c r="C12">
-        <v>0.2491495166373738</v>
+        <v>0.7988353229340817</v>
       </c>
       <c r="D12">
-        <v>0.6307258243776914</v>
+        <v>0.5620493646169109</v>
       </c>
       <c r="E12">
-        <v>0.2365156921231275</v>
+        <v>0.171689805942961</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6155431321762705</v>
+        <v>0.6102402691453932</v>
       </c>
       <c r="H12">
-        <v>0.7025348710240422</v>
+        <v>0.3756138178170261</v>
       </c>
       <c r="I12">
-        <v>0.4877582735611057</v>
+        <v>0.2269845421111647</v>
       </c>
       <c r="J12">
-        <v>0.109947598390697</v>
+        <v>0.05521819226321156</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4986236379316722</v>
+        <v>1.073426297785119</v>
       </c>
       <c r="N12">
-        <v>1.141024201342461</v>
+        <v>0.6491352230296528</v>
       </c>
       <c r="O12">
-        <v>2.619784567834898</v>
+        <v>2.03149387931407</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.055423876063571</v>
+        <v>3.129709460137235</v>
       </c>
       <c r="C13">
-        <v>0.247875956879426</v>
+        <v>0.794601149975648</v>
       </c>
       <c r="D13">
-        <v>0.6303146657453453</v>
+        <v>0.5596692013830875</v>
       </c>
       <c r="E13">
-        <v>0.236439380116984</v>
+        <v>0.1710598952019851</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6151977371301598</v>
+        <v>0.60756133266635</v>
       </c>
       <c r="H13">
-        <v>0.7025908351658217</v>
+        <v>0.3747059480176773</v>
       </c>
       <c r="I13">
-        <v>0.4879613338281032</v>
+        <v>0.2267010660344688</v>
       </c>
       <c r="J13">
-        <v>0.1099612192953678</v>
+        <v>0.05509923077324075</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4970446993473345</v>
+        <v>1.067647769612144</v>
       </c>
       <c r="N13">
-        <v>1.141407567264082</v>
+        <v>0.6498112477695912</v>
       </c>
       <c r="O13">
-        <v>2.619153867371665</v>
+        <v>2.023891981223045</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.038975897980436</v>
+        <v>3.074745019426814</v>
       </c>
       <c r="C14">
-        <v>0.2437216579576216</v>
+        <v>0.7807993752120126</v>
       </c>
       <c r="D14">
-        <v>0.62898115650367</v>
+        <v>0.5519295184307111</v>
       </c>
       <c r="E14">
-        <v>0.2361933243154297</v>
+        <v>0.1690137557324292</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6140825365395131</v>
+        <v>0.5988688369195359</v>
       </c>
       <c r="H14">
-        <v>0.7027821482873833</v>
+        <v>0.3717691804715599</v>
       </c>
       <c r="I14">
-        <v>0.4886316602865932</v>
+        <v>0.2258010967458546</v>
       </c>
       <c r="J14">
-        <v>0.1100069321034702</v>
+        <v>0.05471469980911081</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4918982025586089</v>
+        <v>1.048820654901405</v>
       </c>
       <c r="N14">
-        <v>1.142669127908263</v>
+        <v>0.6520477983301802</v>
       </c>
       <c r="O14">
-        <v>2.617138932452775</v>
+        <v>1.999243998558683</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.028900041406246</v>
+        <v>3.041096947895994</v>
       </c>
       <c r="C15">
-        <v>0.2411763100406858</v>
+        <v>0.7723504572498427</v>
       </c>
       <c r="D15">
-        <v>0.6281700074669345</v>
+        <v>0.5472058518191147</v>
       </c>
       <c r="E15">
-        <v>0.2360447709073732</v>
+        <v>0.1677666158552356</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6134080535199473</v>
+        <v>0.5935778858220431</v>
       </c>
       <c r="H15">
-        <v>0.7029060968947789</v>
+        <v>0.3699885669172431</v>
       </c>
       <c r="I15">
-        <v>0.4890484792143432</v>
+        <v>0.2252684753440377</v>
       </c>
       <c r="J15">
-        <v>0.1100359253554792</v>
+        <v>0.05448177014558908</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4887479561228858</v>
+        <v>1.037302021121882</v>
       </c>
       <c r="N15">
-        <v>1.143450570684792</v>
+        <v>0.6534420637637623</v>
       </c>
       <c r="O15">
-        <v>2.615936930689486</v>
+        <v>1.984255307830864</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.971145115337265</v>
+        <v>2.848547658609789</v>
       </c>
       <c r="C16">
-        <v>0.2265791363261087</v>
+        <v>0.7240049459116449</v>
       </c>
       <c r="D16">
-        <v>0.6236085282675958</v>
+        <v>0.5203901105197701</v>
       </c>
       <c r="E16">
-        <v>0.2352266373871501</v>
+        <v>0.1607115426287251</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6096747140802847</v>
+        <v>0.5637528253535322</v>
       </c>
       <c r="H16">
-        <v>0.7037200777166674</v>
+        <v>0.3600562677708012</v>
       </c>
       <c r="I16">
-        <v>0.4915324354363548</v>
+        <v>0.2224939112031912</v>
       </c>
       <c r="J16">
-        <v>0.110217290682602</v>
+        <v>0.05318577506789524</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4707281128591205</v>
+        <v>0.9714903187597983</v>
       </c>
       <c r="N16">
-        <v>1.148062105954459</v>
+        <v>0.661797037178971</v>
       </c>
       <c r="O16">
-        <v>2.609542127842246</v>
+        <v>1.89997677530755</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9357026824425247</v>
+        <v>2.730647794220204</v>
       </c>
       <c r="C17">
-        <v>0.2176148328560146</v>
+        <v>0.6944044572748282</v>
       </c>
       <c r="D17">
-        <v>0.6208878230094115</v>
+        <v>0.5041567657599728</v>
       </c>
       <c r="E17">
-        <v>0.2347543499135227</v>
+        <v>0.1564622712422299</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6075019626651539</v>
+        <v>0.5458794764385857</v>
       </c>
       <c r="H17">
-        <v>0.7043119572695389</v>
+        <v>0.3541971633325431</v>
       </c>
       <c r="I17">
-        <v>0.4931412544409923</v>
+        <v>0.2210311347365348</v>
       </c>
       <c r="J17">
-        <v>0.1103421297677087</v>
+        <v>0.05242418453487474</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4597032208203373</v>
+        <v>0.9312818487465364</v>
       </c>
       <c r="N17">
-        <v>1.151010224800473</v>
+        <v>0.6672401098972713</v>
       </c>
       <c r="O17">
-        <v>2.606059141471633</v>
+        <v>1.849659349355278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9153132743749666</v>
+        <v>2.662908434307042</v>
       </c>
       <c r="C18">
-        <v>0.2124554392576101</v>
+        <v>0.677397952470443</v>
       </c>
       <c r="D18">
-        <v>0.6193515011343891</v>
+        <v>0.4948960903494708</v>
       </c>
       <c r="E18">
-        <v>0.234493591031832</v>
+        <v>0.154045956107776</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.606295397856627</v>
+        <v>0.5357476198164193</v>
       </c>
       <c r="H18">
-        <v>0.704686399399705</v>
+        <v>0.3509099342945206</v>
       </c>
       <c r="I18">
-        <v>0.4940978083027048</v>
+        <v>0.2202744734162394</v>
       </c>
       <c r="J18">
-        <v>0.1104189232081367</v>
+        <v>0.05199797559221153</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4533730275431722</v>
+        <v>0.9082114133003856</v>
       </c>
       <c r="N18">
-        <v>1.152749692219068</v>
+        <v>0.6704843818780759</v>
       </c>
       <c r="O18">
-        <v>2.604217430717227</v>
+        <v>1.821205013121102</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9084091489100956</v>
+        <v>2.639984905989252</v>
       </c>
       <c r="C19">
-        <v>0.2107079885844882</v>
+        <v>0.6716428724848811</v>
       </c>
       <c r="D19">
-        <v>0.6188362365407158</v>
+        <v>0.4917733665159858</v>
       </c>
       <c r="E19">
-        <v>0.2344071732573028</v>
+        <v>0.1532324890099765</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6058942812559707</v>
+        <v>0.5323419766975803</v>
       </c>
       <c r="H19">
-        <v>0.7048190205405547</v>
+        <v>0.3498108523071011</v>
       </c>
       <c r="I19">
-        <v>0.4944270373636073</v>
+        <v>0.2200325243535914</v>
       </c>
       <c r="J19">
-        <v>0.1104457810342332</v>
+        <v>0.05185565932188752</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4512316390946225</v>
+        <v>0.9004094638153575</v>
       </c>
       <c r="N19">
-        <v>1.153346168647076</v>
+        <v>0.6716020496629369</v>
       </c>
       <c r="O19">
-        <v>2.6036216069663</v>
+        <v>1.811652462035653</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.939475998826822</v>
+        <v>2.743190641522744</v>
       </c>
       <c r="C20">
-        <v>0.218569448497334</v>
+        <v>0.6975534701048787</v>
       </c>
       <c r="D20">
-        <v>0.6211744920464639</v>
+        <v>0.5058768568023595</v>
       </c>
       <c r="E20">
-        <v>0.2348034989604564</v>
+        <v>0.1569117145049503</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6077287893984504</v>
+        <v>0.5477666055039521</v>
       </c>
       <c r="H20">
-        <v>0.7042454310160764</v>
+        <v>0.3548122367541566</v>
       </c>
       <c r="I20">
-        <v>0.4929667627505552</v>
+        <v>0.2211780125499807</v>
       </c>
       <c r="J20">
-        <v>0.1103283240529471</v>
+        <v>0.05250402183376579</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4608757002071968</v>
+        <v>0.9355561781851591</v>
       </c>
       <c r="N20">
-        <v>1.15069186117902</v>
+        <v>0.6666488627943252</v>
       </c>
       <c r="O20">
-        <v>2.606413183062699</v>
+        <v>1.854964845388992</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.043807277581209</v>
+        <v>3.090885349132805</v>
       </c>
       <c r="C21">
-        <v>0.244942026800004</v>
+        <v>0.7848522206687107</v>
       </c>
       <c r="D21">
-        <v>0.6293716603287862</v>
+        <v>0.5541992637256783</v>
       </c>
       <c r="E21">
-        <v>0.2362651461635004</v>
+        <v>0.1696134615254081</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6144083035000421</v>
+        <v>0.6014150193598056</v>
       </c>
       <c r="H21">
-        <v>0.7027245454425355</v>
+        <v>0.3726279595599351</v>
       </c>
       <c r="I21">
-        <v>0.4884334717822618</v>
+        <v>0.2260615365138747</v>
       </c>
       <c r="J21">
-        <v>0.1099932982353593</v>
+        <v>0.05482709992018542</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4934094098872208</v>
+        <v>1.054347792838726</v>
       </c>
       <c r="N21">
-        <v>1.142296763913365</v>
+        <v>0.6513857836720689</v>
       </c>
       <c r="O21">
-        <v>2.61772405586504</v>
+        <v>2.006460881121797</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.111950406928543</v>
+        <v>3.318961938280097</v>
       </c>
       <c r="C22">
-        <v>0.2621460665789925</v>
+        <v>0.842127325217632</v>
       </c>
       <c r="D22">
-        <v>0.6349825735778438</v>
+        <v>0.5865370599554751</v>
       </c>
       <c r="E22">
-        <v>0.2373172396510057</v>
+        <v>0.1781880949517713</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6191589657653509</v>
+        <v>0.6379551080167545</v>
       </c>
       <c r="H22">
-        <v>0.702033302916476</v>
+        <v>0.3850791703107035</v>
       </c>
       <c r="I22">
-        <v>0.4857492207092662</v>
+        <v>0.2300783907980062</v>
       </c>
       <c r="J22">
-        <v>0.1098187756499662</v>
+        <v>0.05646078074495264</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5147677887678128</v>
+        <v>1.132578574475552</v>
       </c>
       <c r="N22">
-        <v>1.137199552047072</v>
+        <v>0.6424901217467891</v>
       </c>
       <c r="O22">
-        <v>2.626557489149491</v>
+        <v>2.110286903662768</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.075585543782438</v>
+        <v>3.197147190389558</v>
       </c>
       <c r="C23">
-        <v>0.2529669689736238</v>
+        <v>0.8115357218257202</v>
       </c>
       <c r="D23">
-        <v>0.6319647538213076</v>
+        <v>0.5692046899345087</v>
       </c>
       <c r="E23">
-        <v>0.2367468649275821</v>
+        <v>0.1735853218103216</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6165881517429739</v>
+        <v>0.6183098739581823</v>
       </c>
       <c r="H23">
-        <v>0.7023745357102342</v>
+        <v>0.3783562643013312</v>
       </c>
       <c r="I23">
-        <v>0.487156340244816</v>
+        <v>0.2278554313525376</v>
       </c>
       <c r="J23">
-        <v>0.1099078553754005</v>
+        <v>0.05557778849877693</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5033597840945703</v>
+        <v>1.090766395090007</v>
       </c>
       <c r="N23">
-        <v>1.139884414542784</v>
+        <v>0.6471356707563274</v>
       </c>
       <c r="O23">
-        <v>2.621710960265801</v>
+        <v>2.054408274776478</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9377701231348965</v>
+        <v>2.737519888787176</v>
       </c>
       <c r="C24">
-        <v>0.2181378844868789</v>
+        <v>0.6961297670450506</v>
       </c>
       <c r="D24">
-        <v>0.6210448022248443</v>
+        <v>0.5050989799251226</v>
       </c>
       <c r="E24">
-        <v>0.2347812451418001</v>
+        <v>0.1567084384874846</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6076261084126457</v>
+        <v>0.5469129883304191</v>
       </c>
       <c r="H24">
-        <v>0.704275401118295</v>
+        <v>0.3545339097528597</v>
       </c>
       <c r="I24">
-        <v>0.4930455519484127</v>
+        <v>0.2211113472578816</v>
       </c>
       <c r="J24">
-        <v>0.1103345499745849</v>
+        <v>0.05246789124426599</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4603455968188399</v>
+        <v>0.9336236117076524</v>
       </c>
       <c r="N24">
-        <v>1.150835654580533</v>
+        <v>0.6669158082230595</v>
       </c>
       <c r="O24">
-        <v>2.606252620293475</v>
+        <v>1.852564759957374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7889712117043359</v>
+        <v>2.244456856382044</v>
       </c>
       <c r="C25">
-        <v>0.180441553139616</v>
+        <v>0.5723433069555313</v>
       </c>
       <c r="D25">
-        <v>0.6103579597892264</v>
+        <v>0.4388296026453133</v>
       </c>
       <c r="E25">
-        <v>0.233077356090579</v>
+        <v>0.1395518875295139</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5996079050923555</v>
+        <v>0.475495885490048</v>
       </c>
       <c r="H25">
-        <v>0.7076260553265854</v>
+        <v>0.331966834481463</v>
       </c>
       <c r="I25">
-        <v>0.5005906137641141</v>
+        <v>0.2170387185872826</v>
       </c>
       <c r="J25">
-        <v>0.1109855545498029</v>
+        <v>0.04956093356343771</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4143709680216787</v>
+        <v>0.7662308393248907</v>
       </c>
       <c r="N25">
-        <v>1.164322743471445</v>
+        <v>0.6925589679974351</v>
       </c>
       <c r="O25">
-        <v>2.595755619893168</v>
+        <v>1.653219210123382</v>
       </c>
     </row>
   </sheetData>
